--- a/Specification/240-0214-EMEL-CS00-0008 FAULT LEVEL CALCULATION/240-0214-EMEL-CS00-0008 FAULT LEVEL CALCULATION.xlsx
+++ b/Specification/240-0214-EMEL-CS00-0008 FAULT LEVEL CALCULATION/240-0214-EMEL-CS00-0008 FAULT LEVEL CALCULATION.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Project Documentation\P_240_Autocad_Docs\Specification\240-0214-EMEL-CS00-0008 FAULT LEVEL CALCULATION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="19410" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="19410" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="21" r:id="rId1"/>
@@ -548,12 +553,12 @@
     <definedName name="zq_syst" localSheetId="0">'[8]CASE A1 CPP'!#REF!</definedName>
     <definedName name="zq_syst">'[7]CASE A1 CPP'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="106">
   <si>
     <t>AND</t>
   </si>
@@ -885,9 +890,6 @@
     <t xml:space="preserve">240-0214-EMEL-CS00-0008 </t>
   </si>
   <si>
-    <t>28/10/2015</t>
-  </si>
-  <si>
     <t>ISSUED FOR APPROVAL</t>
   </si>
   <si>
@@ -922,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -934,7 +936,6 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="#####\ &quot;kVAR&quot;"/>
     <numFmt numFmtId="169" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2548,9 +2549,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="2" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="30" fillId="2" borderId="19" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -2921,6 +2919,9 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="30" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="11" xfId="30" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="19" xfId="30" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="2" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Aro-para" xfId="11"/>
@@ -2995,7 +2996,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3419748" y="285994"/>
-          <a:ext cx="883315" cy="716202"/>
+          <a:ext cx="908163" cy="716202"/>
           <a:chOff x="6906006" y="266695"/>
           <a:chExt cx="862201" cy="750046"/>
         </a:xfrm>
@@ -3222,8 +3223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4074209" y="107868"/>
-          <a:ext cx="585773" cy="585386"/>
+          <a:off x="4148752" y="107868"/>
+          <a:ext cx="594056" cy="585386"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -3903,8 +3904,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4074209" y="107868"/>
-          <a:ext cx="585773" cy="585386"/>
+          <a:off x="4150742" y="106012"/>
+          <a:ext cx="593223" cy="564207"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -4584,8 +4585,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4084218" y="105201"/>
-          <a:ext cx="582414" cy="558535"/>
+          <a:off x="4159435" y="105336"/>
+          <a:ext cx="591745" cy="563379"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -7558,7 +7559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7593,7 +7594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7804,8 +7805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7844,94 +7845,94 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="126"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="251" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="253"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="252"/>
       <c r="P2" s="126"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="127"/>
-      <c r="B3" s="248"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="254" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="256"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255"/>
       <c r="P3" s="126"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="127"/>
-      <c r="B4" s="248"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="254" t="s">
+      <c r="B4" s="247"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="256"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="255"/>
       <c r="P4" s="127"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="127"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="257" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="259"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="258"/>
       <c r="P5" s="127"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="127"/>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="262"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="131"/>
       <c r="I6" s="132"/>
       <c r="J6" s="133"/>
@@ -7944,12 +7945,12 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="127"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="262"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="135" t="s">
         <v>59</v>
       </c>
@@ -7968,12 +7969,12 @@
     </row>
     <row r="8" spans="1:16" ht="13.5" thickBot="1">
       <c r="A8" s="127"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="266"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="265"/>
       <c r="H8" s="141" t="s">
         <v>62</v>
       </c>
@@ -8012,22 +8013,22 @@
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1">
       <c r="A10" s="146"/>
-      <c r="B10" s="267" t="s">
+      <c r="B10" s="266" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="269"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="267"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="268"/>
       <c r="P10" s="146"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" thickBot="1">
@@ -8079,12 +8080,12 @@
       <c r="J13" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="270" t="s">
+      <c r="K13" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="270"/>
-      <c r="M13" s="270"/>
-      <c r="N13" s="271"/>
+      <c r="L13" s="269"/>
+      <c r="M13" s="269"/>
+      <c r="N13" s="270"/>
       <c r="O13" s="156"/>
       <c r="P13" s="146"/>
     </row>
@@ -8773,8 +8774,8 @@
       <c r="K49" s="180"/>
       <c r="L49" s="177"/>
       <c r="M49" s="177"/>
-      <c r="N49" s="272"/>
-      <c r="O49" s="273"/>
+      <c r="N49" s="271"/>
+      <c r="O49" s="272"/>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="182"/>
@@ -8789,8 +8790,8 @@
       <c r="K50" s="187"/>
       <c r="L50" s="185"/>
       <c r="M50" s="185"/>
-      <c r="N50" s="232"/>
-      <c r="O50" s="233"/>
+      <c r="N50" s="231"/>
+      <c r="O50" s="232"/>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="188"/>
@@ -8805,8 +8806,8 @@
       <c r="K51" s="187"/>
       <c r="L51" s="185"/>
       <c r="M51" s="185"/>
-      <c r="N51" s="232"/>
-      <c r="O51" s="233"/>
+      <c r="N51" s="231"/>
+      <c r="O51" s="232"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="188"/>
@@ -8821,8 +8822,8 @@
       <c r="K52" s="187"/>
       <c r="L52" s="185"/>
       <c r="M52" s="185"/>
-      <c r="N52" s="232"/>
-      <c r="O52" s="233"/>
+      <c r="N52" s="231"/>
+      <c r="O52" s="232"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="188"/>
@@ -8837,8 +8838,8 @@
       <c r="K53" s="187"/>
       <c r="L53" s="185"/>
       <c r="M53" s="185"/>
-      <c r="N53" s="232"/>
-      <c r="O53" s="233"/>
+      <c r="N53" s="231"/>
+      <c r="O53" s="232"/>
     </row>
     <row r="54" spans="2:15" ht="14.25">
       <c r="B54" s="192"/>
@@ -8853,68 +8854,68 @@
       <c r="K54" s="198"/>
       <c r="L54" s="195"/>
       <c r="M54" s="195"/>
-      <c r="N54" s="234"/>
-      <c r="O54" s="235"/>
+      <c r="N54" s="233"/>
+      <c r="O54" s="234"/>
     </row>
     <row r="55" spans="2:15" ht="14.25">
       <c r="B55" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="199" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="200"/>
+      <c r="C55" s="345">
+        <v>42136</v>
+      </c>
+      <c r="D55" s="199"/>
       <c r="E55" s="195">
         <v>4</v>
       </c>
-      <c r="F55" s="236" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="237"/>
-      <c r="H55" s="237"/>
-      <c r="I55" s="237"/>
-      <c r="J55" s="237"/>
-      <c r="K55" s="238"/>
-      <c r="L55" s="201" t="s">
+      <c r="F55" s="235" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="236"/>
+      <c r="H55" s="236"/>
+      <c r="I55" s="236"/>
+      <c r="J55" s="236"/>
+      <c r="K55" s="237"/>
+      <c r="L55" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="M55" s="201" t="s">
+      <c r="M55" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="N55" s="239" t="s">
+      <c r="N55" s="238" t="s">
         <v>80</v>
       </c>
-      <c r="O55" s="240"/>
+      <c r="O55" s="239"/>
     </row>
     <row r="56" spans="2:15" ht="15" thickBot="1">
-      <c r="B56" s="202" t="s">
+      <c r="B56" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="204"/>
-      <c r="E56" s="205" t="s">
+      <c r="D56" s="203"/>
+      <c r="E56" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="241" t="s">
+      <c r="F56" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
-      <c r="K56" s="243"/>
-      <c r="L56" s="205" t="s">
+      <c r="G56" s="241"/>
+      <c r="H56" s="241"/>
+      <c r="I56" s="241"/>
+      <c r="J56" s="241"/>
+      <c r="K56" s="242"/>
+      <c r="L56" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="M56" s="205" t="s">
+      <c r="M56" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="N56" s="241" t="s">
+      <c r="N56" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="O56" s="244"/>
+      <c r="O56" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -8950,7 +8951,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
@@ -8970,56 +8971,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="328"/>
-      <c r="B1" s="329"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="331"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="330"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="332" t="s">
+      <c r="F1" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="333"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335" t="s">
+      <c r="A2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="334" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="336"/>
+      <c r="D2" s="335"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="337" t="s">
+      <c r="F2" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340" t="s">
+      <c r="A3" s="337"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="339" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="341"/>
+      <c r="D3" s="340"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="337" t="s">
+      <c r="F3" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="342"/>
-      <c r="B4" s="343"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="345"/>
+      <c r="A4" s="341"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -9030,10 +9031,10 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="318" t="s">
+      <c r="A5" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="319"/>
+      <c r="B5" s="318"/>
       <c r="C5" s="45" t="s">
         <v>14</v>
       </c>
@@ -9044,16 +9045,16 @@
       <c r="H5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="322" t="s">
+      <c r="I5" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="323"/>
+      <c r="J5" s="322"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="319"/>
+      <c r="B6" s="318"/>
       <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
@@ -9064,16 +9065,16 @@
       <c r="H6" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="320" t="s">
+      <c r="I6" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="321"/>
+      <c r="J6" s="320"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="319"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -9084,14 +9085,14 @@
       <c r="H7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="322"/>
-      <c r="J7" s="323"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="325"/>
+      <c r="B8" s="324"/>
       <c r="C8" s="44">
         <v>240</v>
       </c>
@@ -9102,81 +9103,81 @@
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="326"/>
-      <c r="J8" s="327"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="326"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="314"/>
-      <c r="B9" s="315"/>
+      <c r="A9" s="313"/>
+      <c r="B9" s="314"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="317"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="316"/>
       <c r="H9" s="22"/>
       <c r="I9" s="56"/>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="305" t="s">
+      <c r="A10" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="306"/>
-      <c r="C10" s="206">
+      <c r="B10" s="305"/>
+      <c r="C10" s="205">
         <v>345</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="308"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="42"/>
       <c r="I10" s="104"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="305" t="s">
+      <c r="A11" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="306"/>
-      <c r="C11" s="206">
+      <c r="B11" s="305"/>
+      <c r="C11" s="205">
         <v>400</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="307"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="305" t="s">
+      <c r="A12" s="304" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="306"/>
-      <c r="C12" s="206">
+      <c r="B12" s="305"/>
+      <c r="C12" s="205">
         <v>230</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="308"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="305" t="s">
+      <c r="A13" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="306"/>
-      <c r="C13" s="206">
+      <c r="B13" s="305"/>
+      <c r="C13" s="205">
         <f>ROUND(C10*1000/C11/1.732,2)</f>
         <v>497.98</v>
       </c>
@@ -9184,33 +9185,33 @@
         <v>17</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="307"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="310"/>
-      <c r="C14" s="206">
+      <c r="B14" s="309"/>
+      <c r="C14" s="205">
         <v>12.5</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="60"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="312"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="311"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="305"/>
-      <c r="B15" s="306"/>
+      <c r="A15" s="304"/>
+      <c r="B15" s="305"/>
       <c r="C15" s="113"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -9226,69 +9227,69 @@
       <c r="C16" s="49"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="312"/>
+      <c r="F16" s="310"/>
+      <c r="G16" s="311"/>
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="280"/>
-      <c r="B17" s="281"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="49"/>
       <c r="D17" s="60"/>
       <c r="E17" s="107"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="286"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="285"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
+      <c r="A18" s="290"/>
+      <c r="B18" s="291"/>
       <c r="C18" s="51"/>
       <c r="D18" s="54"/>
       <c r="E18" s="104"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
+      <c r="F18" s="312"/>
+      <c r="G18" s="312"/>
       <c r="H18" s="66"/>
       <c r="I18" s="67"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A19" s="295" t="s">
+      <c r="A19" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="296"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="53"/>
       <c r="D19" s="95"/>
       <c r="E19" s="60"/>
-      <c r="F19" s="304" t="s">
+      <c r="F19" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="304"/>
+      <c r="G19" s="303"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A20" s="302"/>
-      <c r="B20" s="303"/>
+      <c r="A20" s="301"/>
+      <c r="B20" s="302"/>
       <c r="C20" s="38"/>
       <c r="D20" s="50"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
       <c r="H20" s="65"/>
       <c r="I20" s="50"/>
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="282" t="s">
+      <c r="A21" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="283"/>
+      <c r="B21" s="282"/>
       <c r="C21" s="100">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
@@ -9297,10 +9298,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="104"/>
-      <c r="F21" s="284" t="s">
+      <c r="F21" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="284"/>
+      <c r="G21" s="283"/>
       <c r="H21" s="100">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
@@ -9311,20 +9312,20 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="283"/>
+      <c r="B22" s="282"/>
       <c r="C22" s="100">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="104"/>
-      <c r="F22" s="284" t="s">
+      <c r="F22" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="284"/>
+      <c r="G22" s="283"/>
       <c r="H22" s="100">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
@@ -9333,10 +9334,10 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="282" t="s">
+      <c r="A23" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="283"/>
+      <c r="B23" s="282"/>
       <c r="C23" s="47">
         <f>ROUNDUP(C21*C22,0)</f>
         <v>3984</v>
@@ -9345,10 +9346,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="60"/>
-      <c r="F23" s="288" t="s">
+      <c r="F23" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="283"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="47">
         <f>ROUNDDOWN(H21*H22*1.5,0)</f>
         <v>5976</v>
@@ -9359,46 +9360,46 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="280" t="s">
+      <c r="A24" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="281"/>
-      <c r="C24" s="207">
+      <c r="B24" s="280"/>
+      <c r="C24" s="206">
         <f>ROUND(C23/1000,2)</f>
         <v>3.98</v>
       </c>
-      <c r="D24" s="208" t="s">
+      <c r="D24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="60"/>
-      <c r="F24" s="289" t="s">
+      <c r="F24" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="289"/>
-      <c r="H24" s="207">
+      <c r="G24" s="288"/>
+      <c r="H24" s="206">
         <f>ROUND(H23/1000,2)</f>
         <v>5.98</v>
       </c>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="207">
+      <c r="A25" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="280"/>
+      <c r="C25" s="206">
         <f>ROUND(C23/1000/0.87,2)</f>
         <v>4.58</v>
       </c>
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="104"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
       <c r="H25" s="48"/>
       <c r="I25" s="46"/>
       <c r="J25" s="28"/>
@@ -9416,10 +9417,10 @@
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="299" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="301"/>
+      <c r="B27" s="300"/>
       <c r="C27" s="124"/>
       <c r="D27" s="125"/>
       <c r="E27" s="111"/>
@@ -9430,22 +9431,22 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A28" s="291"/>
-      <c r="B28" s="292"/>
+      <c r="A28" s="290"/>
+      <c r="B28" s="291"/>
       <c r="C28" s="51"/>
       <c r="D28" s="54"/>
       <c r="E28" s="104"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="294"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="293"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A29" s="295" t="s">
+      <c r="A29" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="296"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="53"/>
       <c r="D29" s="95"/>
       <c r="E29" s="60"/>
@@ -9458,34 +9459,34 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A30" s="297"/>
-      <c r="B30" s="298"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="297"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="104"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="298"/>
       <c r="H30" s="70"/>
       <c r="I30" s="71"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="282" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="283"/>
-      <c r="C31" s="206">
+      <c r="A31" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="282"/>
+      <c r="C31" s="205">
         <v>10</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="287" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="283"/>
-      <c r="H31" s="206">
+      <c r="F31" s="286" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="282"/>
+      <c r="H31" s="205">
         <v>10</v>
       </c>
       <c r="I31" s="55" t="s">
@@ -9494,60 +9495,60 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="282" t="s">
+      <c r="A32" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="283"/>
-      <c r="C32" s="206">
+      <c r="B32" s="282"/>
+      <c r="C32" s="205">
         <v>1</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="109"/>
-      <c r="F32" s="287" t="s">
+      <c r="F32" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="283"/>
-      <c r="H32" s="206">
+      <c r="G32" s="282"/>
+      <c r="H32" s="205">
         <v>1</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="282" t="s">
+      <c r="A33" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="283"/>
-      <c r="C33" s="206">
+      <c r="B33" s="282"/>
+      <c r="C33" s="205">
         <v>129900</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="287" t="s">
+      <c r="F33" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="283"/>
-      <c r="H33" s="206">
+      <c r="G33" s="282"/>
+      <c r="H33" s="205">
         <v>129900</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="282" t="s">
+      <c r="A34" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="283"/>
+      <c r="B34" s="282"/>
       <c r="C34" s="100">
         <f>ROUND(1.732*C31*C23/C32/C33/C11,4)</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="284"/>
+      <c r="G34" s="283"/>
       <c r="H34" s="100">
         <f>ROUND(2*H31*H23/H32/H33/C12,4)</f>
         <v>4.0000000000000001E-3</v>
@@ -9556,20 +9557,20 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="282" t="s">
+      <c r="A35" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="283"/>
+      <c r="B35" s="282"/>
       <c r="C35" s="100">
         <f>ROUND(1/(1+C34),4)</f>
         <v>0.99870000000000003</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="284" t="s">
+      <c r="F35" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="284"/>
+      <c r="G35" s="283"/>
       <c r="H35" s="100">
         <f>ROUND(1/(1+H34),4)</f>
         <v>0.996</v>
@@ -9578,10 +9579,10 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="283"/>
+      <c r="B36" s="282"/>
       <c r="C36" s="47">
         <f>ROUNDUP(C23*C35,0)</f>
         <v>3979</v>
@@ -9590,10 +9591,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="284"/>
+      <c r="G36" s="283"/>
       <c r="H36" s="47">
         <f>ROUNDUP(H23*H35,2)</f>
         <v>5952.1</v>
@@ -9604,46 +9605,46 @@
       <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="207">
+      <c r="B37" s="280"/>
+      <c r="C37" s="206">
         <f>ROUND(C36/1000,2)</f>
         <v>3.98</v>
       </c>
-      <c r="D37" s="208" t="s">
+      <c r="D37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="285" t="s">
+      <c r="F37" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="286"/>
-      <c r="H37" s="207">
+      <c r="G37" s="285"/>
+      <c r="H37" s="206">
         <f>ROUND(H36/1000,2)</f>
         <v>5.95</v>
       </c>
-      <c r="I37" s="208" t="s">
+      <c r="I37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="207">
+      <c r="A38" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="280"/>
+      <c r="C38" s="206">
         <f>ROUND(C36/1000/0.87,2)</f>
         <v>4.57</v>
       </c>
-      <c r="D38" s="208" t="s">
+      <c r="D38" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="104"/>
-      <c r="F38" s="274"/>
-      <c r="G38" s="274"/>
+      <c r="F38" s="273"/>
+      <c r="G38" s="273"/>
       <c r="H38" s="96"/>
       <c r="I38" s="97"/>
       <c r="J38" s="30"/>
@@ -9654,32 +9655,32 @@
       <c r="C39" s="116"/>
       <c r="D39" s="42"/>
       <c r="E39" s="117"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="273"/>
       <c r="H39" s="96"/>
       <c r="I39" s="97"/>
       <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="275"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="274"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="278"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="277"/>
       <c r="H40" s="60"/>
       <c r="I40" s="110"/>
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="274"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="14"/>
       <c r="D41" s="102"/>
       <c r="E41" s="64"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="278"/>
       <c r="H41" s="101"/>
       <c r="I41" s="14"/>
       <c r="J41" s="90"/>
@@ -9702,7 +9703,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="77"/>
@@ -9719,8 +9720,8 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="231" t="s">
-        <v>99</v>
+      <c r="A44" s="230" t="s">
+        <v>98</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="77"/>
@@ -9733,8 +9734,8 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="18">
-      <c r="A45" s="231" t="s">
-        <v>100</v>
+      <c r="A45" s="230" t="s">
+        <v>99</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="77"/>
@@ -9771,12 +9772,12 @@
       <c r="B47" s="8"/>
       <c r="C47" s="77"/>
       <c r="D47" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
       <c r="G47" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="84"/>
       <c r="I47" s="9"/>
@@ -9784,7 +9785,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="77"/>
@@ -10067,7 +10068,7 @@
     <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10080,7 +10081,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A43" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
@@ -10100,56 +10101,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="328"/>
-      <c r="B1" s="329"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="331"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="330"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="332" t="s">
+      <c r="F1" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="333"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335" t="s">
+      <c r="A2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="334" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="336"/>
+      <c r="D2" s="335"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="337" t="s">
+      <c r="F2" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340" t="s">
+      <c r="A3" s="337"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="339" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="341"/>
+      <c r="D3" s="340"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="337" t="s">
+      <c r="F3" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="342"/>
-      <c r="B4" s="343"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="345"/>
+      <c r="A4" s="341"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -10160,10 +10161,10 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="318" t="s">
+      <c r="A5" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="319"/>
+      <c r="B5" s="318"/>
       <c r="C5" s="45" t="s">
         <v>14</v>
       </c>
@@ -10171,19 +10172,19 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="218" t="s">
+      <c r="H5" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="322" t="s">
+      <c r="I5" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="323"/>
+      <c r="J5" s="322"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="319"/>
+      <c r="B6" s="318"/>
       <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
@@ -10191,19 +10192,19 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="320" t="s">
+      <c r="I6" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="321"/>
+      <c r="J6" s="320"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="319"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -10211,17 +10212,17 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="218" t="s">
+      <c r="H7" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="322"/>
-      <c r="J7" s="323"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="325"/>
+      <c r="B8" s="324"/>
       <c r="C8" s="44">
         <v>240</v>
       </c>
@@ -10232,81 +10233,81 @@
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="326"/>
-      <c r="J8" s="327"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="326"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="314"/>
-      <c r="B9" s="315"/>
+      <c r="A9" s="313"/>
+      <c r="B9" s="314"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="317"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="316"/>
       <c r="H9" s="22"/>
       <c r="I9" s="56"/>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="305" t="s">
+      <c r="A10" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="306"/>
-      <c r="C10" s="219">
+      <c r="B10" s="305"/>
+      <c r="C10" s="218">
         <v>345</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="308"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="216"/>
+      <c r="I10" s="215"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="305" t="s">
+      <c r="A11" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="306"/>
-      <c r="C11" s="219">
+      <c r="B11" s="305"/>
+      <c r="C11" s="218">
         <v>400</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="307"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="305" t="s">
+      <c r="A12" s="304" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="306"/>
-      <c r="C12" s="219">
+      <c r="B12" s="305"/>
+      <c r="C12" s="218">
         <v>230</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="308"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="305" t="s">
+      <c r="A13" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="306"/>
-      <c r="C13" s="219">
+      <c r="B13" s="305"/>
+      <c r="C13" s="218">
         <f>ROUND(C10*1000/C11/1.732,2)</f>
         <v>497.98</v>
       </c>
@@ -10314,124 +10315,124 @@
         <v>17</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="307"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="310"/>
-      <c r="C14" s="219">
+      <c r="B14" s="309"/>
+      <c r="C14" s="218">
         <v>12.5</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="60"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="312"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="311"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="305"/>
-      <c r="B15" s="306"/>
+      <c r="A15" s="304"/>
+      <c r="B15" s="305"/>
       <c r="C15" s="113"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="217"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="214"/>
-      <c r="B16" s="215"/>
+      <c r="A16" s="213"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="49"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="312"/>
+      <c r="F16" s="310"/>
+      <c r="G16" s="311"/>
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="280"/>
-      <c r="B17" s="281"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="49"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="286"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="285"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
+      <c r="A18" s="290"/>
+      <c r="B18" s="291"/>
       <c r="C18" s="51"/>
       <c r="D18" s="54"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="312"/>
+      <c r="G18" s="312"/>
       <c r="H18" s="66"/>
       <c r="I18" s="67"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A19" s="295" t="s">
+      <c r="A19" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="296"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="53"/>
       <c r="D19" s="95"/>
       <c r="E19" s="60"/>
-      <c r="F19" s="304" t="s">
+      <c r="F19" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="304"/>
+      <c r="G19" s="303"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A20" s="302"/>
-      <c r="B20" s="303"/>
+      <c r="A20" s="301"/>
+      <c r="B20" s="302"/>
       <c r="C20" s="38"/>
       <c r="D20" s="50"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
       <c r="H20" s="65"/>
       <c r="I20" s="50"/>
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="282" t="s">
+      <c r="A21" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="283"/>
-      <c r="C21" s="212">
+      <c r="B21" s="282"/>
+      <c r="C21" s="211">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="216"/>
-      <c r="F21" s="284" t="s">
+      <c r="E21" s="215"/>
+      <c r="F21" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="284"/>
-      <c r="H21" s="212">
+      <c r="G21" s="283"/>
+      <c r="H21" s="211">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
       </c>
@@ -10441,21 +10442,21 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="283"/>
-      <c r="C22" s="212">
+      <c r="B22" s="282"/>
+      <c r="C22" s="211">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
       </c>
       <c r="D22" s="60"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="284" t="s">
+      <c r="E22" s="215"/>
+      <c r="F22" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="284"/>
-      <c r="H22" s="212">
+      <c r="G22" s="283"/>
+      <c r="H22" s="211">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
       </c>
@@ -10463,10 +10464,10 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="282" t="s">
+      <c r="A23" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="283"/>
+      <c r="B23" s="282"/>
       <c r="C23" s="47">
         <f>ROUNDUP(C21*C22,0)</f>
         <v>3984</v>
@@ -10475,10 +10476,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="60"/>
-      <c r="F23" s="288" t="s">
+      <c r="F23" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="283"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="47">
         <f>ROUNDDOWN(H21*H22*1.5,0)</f>
         <v>5976</v>
@@ -10489,46 +10490,46 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="280" t="s">
+      <c r="A24" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="281"/>
-      <c r="C24" s="207">
+      <c r="B24" s="280"/>
+      <c r="C24" s="206">
         <f>ROUND(C23/1000,2)</f>
         <v>3.98</v>
       </c>
-      <c r="D24" s="208" t="s">
+      <c r="D24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="60"/>
-      <c r="F24" s="289" t="s">
+      <c r="F24" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="289"/>
-      <c r="H24" s="207">
+      <c r="G24" s="288"/>
+      <c r="H24" s="206">
         <f>ROUND(H23/1000,2)</f>
         <v>5.98</v>
       </c>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="207">
+      <c r="A25" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="280"/>
+      <c r="C25" s="206">
         <f>ROUND(C23/1000/0.87,2)</f>
         <v>4.58</v>
       </c>
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="216"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
       <c r="H25" s="48"/>
       <c r="I25" s="46"/>
       <c r="J25" s="28"/>
@@ -10538,7 +10539,7 @@
       <c r="B26" s="119"/>
       <c r="C26" s="124"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="216"/>
+      <c r="E26" s="215"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="122"/>
@@ -10546,13 +10547,13 @@
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="300" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="301"/>
+      <c r="A27" s="299" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="300"/>
       <c r="C27" s="124"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="216"/>
+      <c r="E27" s="215"/>
       <c r="F27" s="120"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
@@ -10560,22 +10561,22 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A28" s="291"/>
-      <c r="B28" s="292"/>
+      <c r="A28" s="290"/>
+      <c r="B28" s="291"/>
       <c r="C28" s="51"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="294"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="293"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A29" s="295" t="s">
+      <c r="A29" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="296"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="53"/>
       <c r="D29" s="95"/>
       <c r="E29" s="60"/>
@@ -10588,34 +10589,34 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A30" s="297"/>
-      <c r="B30" s="298"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="297"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="298"/>
       <c r="H30" s="70"/>
       <c r="I30" s="71"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="282" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="283"/>
-      <c r="C31" s="230">
+      <c r="A31" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="282"/>
+      <c r="C31" s="229">
         <v>820</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="287" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="283"/>
-      <c r="H31" s="230">
+      <c r="F31" s="286" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="282"/>
+      <c r="H31" s="229">
         <v>820</v>
       </c>
       <c r="I31" s="55" t="s">
@@ -10624,61 +10625,61 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="282" t="s">
+      <c r="A32" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="283"/>
-      <c r="C32" s="230">
+      <c r="B32" s="282"/>
+      <c r="C32" s="229">
         <v>1</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="109"/>
-      <c r="F32" s="287" t="s">
+      <c r="F32" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="283"/>
-      <c r="H32" s="230">
+      <c r="G32" s="282"/>
+      <c r="H32" s="229">
         <v>1</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="282" t="s">
+      <c r="A33" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="283"/>
-      <c r="C33" s="230">
+      <c r="B33" s="282"/>
+      <c r="C33" s="229">
         <v>799</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="287" t="s">
+      <c r="F33" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="283"/>
-      <c r="H33" s="230">
+      <c r="G33" s="282"/>
+      <c r="H33" s="229">
         <v>799</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="282" t="s">
+      <c r="A34" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="283"/>
-      <c r="C34" s="212">
+      <c r="B34" s="282"/>
+      <c r="C34" s="211">
         <f>ROUND(1.732*C31*C23/C32/C33/C11,4)</f>
         <v>17.7041</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="284"/>
-      <c r="H34" s="212">
+      <c r="G34" s="283"/>
+      <c r="H34" s="211">
         <f>ROUND(2*H31*H23/H32/H33/C12,4)</f>
         <v>53.331000000000003</v>
       </c>
@@ -10686,21 +10687,21 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="282" t="s">
+      <c r="A35" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="283"/>
-      <c r="C35" s="212">
+      <c r="B35" s="282"/>
+      <c r="C35" s="211">
         <f>ROUND(1/(1+C34),4)</f>
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="284" t="s">
+      <c r="F35" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="284"/>
-      <c r="H35" s="212">
+      <c r="G35" s="283"/>
+      <c r="H35" s="211">
         <f>ROUND(1/(1+H34),4)</f>
         <v>1.84E-2</v>
       </c>
@@ -10708,10 +10709,10 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="283"/>
+      <c r="B36" s="282"/>
       <c r="C36" s="47">
         <f>ROUNDUP(C23*C35,0)</f>
         <v>214</v>
@@ -10720,10 +10721,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="284"/>
+      <c r="G36" s="283"/>
       <c r="H36" s="47">
         <f>ROUNDUP(H23*H35,2)</f>
         <v>109.96000000000001</v>
@@ -10734,46 +10735,46 @@
       <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="207">
+      <c r="B37" s="280"/>
+      <c r="C37" s="206">
         <f>ROUND(C36/1000,2)</f>
         <v>0.21</v>
       </c>
-      <c r="D37" s="208" t="s">
+      <c r="D37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="285" t="s">
+      <c r="F37" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="286"/>
-      <c r="H37" s="207">
+      <c r="G37" s="285"/>
+      <c r="H37" s="206">
         <f>ROUND(H36/1000,2)</f>
         <v>0.11</v>
       </c>
-      <c r="I37" s="208" t="s">
+      <c r="I37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="207">
+      <c r="A38" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="280"/>
+      <c r="C38" s="206">
         <f>ROUND(C36/1000/0.87,2)</f>
         <v>0.25</v>
       </c>
-      <c r="D38" s="208" t="s">
+      <c r="D38" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="216"/>
-      <c r="F38" s="274"/>
-      <c r="G38" s="274"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="273"/>
+      <c r="G38" s="273"/>
       <c r="H38" s="96"/>
       <c r="I38" s="97"/>
       <c r="J38" s="30"/>
@@ -10784,33 +10785,33 @@
       <c r="C39" s="116"/>
       <c r="D39" s="42"/>
       <c r="E39" s="117"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="273"/>
       <c r="H39" s="96"/>
       <c r="I39" s="97"/>
       <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="275"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="274"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="278"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="277"/>
       <c r="H40" s="60"/>
-      <c r="I40" s="213"/>
+      <c r="I40" s="212"/>
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="274"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="211"/>
+      <c r="D41" s="210"/>
       <c r="E41" s="64"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="210"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="209"/>
       <c r="I41" s="14"/>
       <c r="J41" s="90"/>
     </row>
@@ -10832,7 +10833,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="77"/>
@@ -10849,8 +10850,8 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="231" t="s">
-        <v>99</v>
+      <c r="A44" s="230" t="s">
+        <v>98</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="77"/>
@@ -10863,8 +10864,8 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="18">
-      <c r="A45" s="231" t="s">
-        <v>100</v>
+      <c r="A45" s="230" t="s">
+        <v>99</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="77"/>
@@ -10901,12 +10902,12 @@
       <c r="B47" s="8"/>
       <c r="C47" s="77"/>
       <c r="D47" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
       <c r="G47" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="84"/>
       <c r="I47" s="9"/>
@@ -10914,7 +10915,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="77"/>
@@ -10970,7 +10971,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="209"/>
+      <c r="H51" s="208"/>
       <c r="I51" s="9"/>
       <c r="J51" s="31"/>
     </row>
@@ -11014,7 +11015,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
       <c r="G54" s="85"/>
-      <c r="H54" s="209"/>
+      <c r="H54" s="208"/>
       <c r="I54" s="9"/>
       <c r="J54" s="31"/>
     </row>
@@ -11080,7 +11081,7 @@
       <c r="F71" s="94"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="209"/>
+      <c r="F72" s="208"/>
     </row>
     <row r="73" spans="6:6" ht="15">
       <c r="F73" s="94"/>
@@ -11089,7 +11090,7 @@
       <c r="F74" s="94"/>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="209"/>
+      <c r="F75" s="208"/>
     </row>
     <row r="76" spans="6:6" ht="15">
       <c r="F76" s="94"/>
@@ -11110,7 +11111,7 @@
       <c r="F81" s="75"/>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="209"/>
+      <c r="F82" s="208"/>
     </row>
     <row r="83" spans="6:6" ht="15">
       <c r="F83" s="75"/>
@@ -11197,7 +11198,7 @@
     <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11210,7 +11211,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="120" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -11230,56 +11231,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="328"/>
-      <c r="B1" s="329"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="331"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="330"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="332" t="s">
+      <c r="F1" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="333"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335" t="s">
+      <c r="A2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="334" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="336"/>
+      <c r="D2" s="335"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="337" t="s">
+      <c r="F2" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340" t="s">
+      <c r="A3" s="337"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="339" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="341"/>
+      <c r="D3" s="340"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="337" t="s">
+      <c r="F3" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="342"/>
-      <c r="B4" s="343"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="345"/>
+      <c r="A4" s="341"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>2</v>
@@ -11290,10 +11291,10 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="318" t="s">
+      <c r="A5" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="319"/>
+      <c r="B5" s="318"/>
       <c r="C5" s="45" t="s">
         <v>14</v>
       </c>
@@ -11301,19 +11302,19 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="221" t="s">
+      <c r="H5" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="322" t="s">
+      <c r="I5" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="323"/>
+      <c r="J5" s="322"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="319"/>
+      <c r="B6" s="318"/>
       <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
@@ -11321,19 +11322,19 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="221" t="s">
+      <c r="H6" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="320" t="s">
+      <c r="I6" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="321"/>
+      <c r="J6" s="320"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="319"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
@@ -11341,17 +11342,17 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="221" t="s">
+      <c r="H7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="322"/>
-      <c r="J7" s="323"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="325"/>
+      <c r="B8" s="324"/>
       <c r="C8" s="44">
         <v>240</v>
       </c>
@@ -11362,81 +11363,81 @@
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="326"/>
-      <c r="J8" s="327"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="326"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="314"/>
-      <c r="B9" s="315"/>
+      <c r="A9" s="313"/>
+      <c r="B9" s="314"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="317"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="316"/>
       <c r="H9" s="22"/>
       <c r="I9" s="56"/>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="305" t="s">
+      <c r="A10" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="306"/>
-      <c r="C10" s="230">
+      <c r="B10" s="305"/>
+      <c r="C10" s="229">
         <v>345</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="308"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="224"/>
+      <c r="I10" s="223"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="305" t="s">
+      <c r="A11" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="306"/>
-      <c r="C11" s="230">
+      <c r="B11" s="305"/>
+      <c r="C11" s="229">
         <v>400</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="307"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="305" t="s">
+      <c r="A12" s="304" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="306"/>
-      <c r="C12" s="230">
+      <c r="B12" s="305"/>
+      <c r="C12" s="229">
         <v>230</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="308"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="305" t="s">
+      <c r="A13" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="306"/>
-      <c r="C13" s="230">
+      <c r="B13" s="305"/>
+      <c r="C13" s="229">
         <f>ROUND(C10*1000/C11/1.732,2)</f>
         <v>497.98</v>
       </c>
@@ -11444,124 +11445,124 @@
         <v>17</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="307"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="310"/>
-      <c r="C14" s="230">
+      <c r="B14" s="309"/>
+      <c r="C14" s="229">
         <v>12.5</v>
       </c>
       <c r="D14" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="60"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="312"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="311"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="305"/>
-      <c r="B15" s="306"/>
+      <c r="A15" s="304"/>
+      <c r="B15" s="305"/>
       <c r="C15" s="113"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="225"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="224"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="222"/>
-      <c r="B16" s="223"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="49"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="312"/>
+      <c r="F16" s="310"/>
+      <c r="G16" s="311"/>
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="280"/>
-      <c r="B17" s="281"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="49"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="286"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="285"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
+      <c r="A18" s="290"/>
+      <c r="B18" s="291"/>
       <c r="C18" s="51"/>
       <c r="D18" s="54"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="312"/>
+      <c r="G18" s="312"/>
       <c r="H18" s="66"/>
       <c r="I18" s="67"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A19" s="295" t="s">
+      <c r="A19" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="296"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="53"/>
       <c r="D19" s="95"/>
       <c r="E19" s="60"/>
-      <c r="F19" s="304" t="s">
+      <c r="F19" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="304"/>
+      <c r="G19" s="303"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A20" s="302"/>
-      <c r="B20" s="303"/>
+      <c r="A20" s="301"/>
+      <c r="B20" s="302"/>
       <c r="C20" s="38"/>
       <c r="D20" s="50"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
       <c r="H20" s="65"/>
       <c r="I20" s="50"/>
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="282" t="s">
+      <c r="A21" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="283"/>
-      <c r="C21" s="226">
+      <c r="B21" s="282"/>
+      <c r="C21" s="225">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="224"/>
-      <c r="F21" s="284" t="s">
+      <c r="E21" s="223"/>
+      <c r="F21" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="284"/>
-      <c r="H21" s="226">
+      <c r="G21" s="283"/>
+      <c r="H21" s="225">
         <f>ROUND(C10*1000/C11/1.732,0)</f>
         <v>498</v>
       </c>
@@ -11571,21 +11572,21 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="283"/>
-      <c r="C22" s="226">
+      <c r="B22" s="282"/>
+      <c r="C22" s="225">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
       </c>
       <c r="D22" s="60"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="284" t="s">
+      <c r="E22" s="223"/>
+      <c r="F22" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="284"/>
-      <c r="H22" s="226">
+      <c r="G22" s="283"/>
+      <c r="H22" s="225">
         <f>ROUND(100/C14,2)</f>
         <v>8</v>
       </c>
@@ -11593,10 +11594,10 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="282" t="s">
+      <c r="A23" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="283"/>
+      <c r="B23" s="282"/>
       <c r="C23" s="47">
         <f>ROUNDUP(C21*C22,0)</f>
         <v>3984</v>
@@ -11605,10 +11606,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="60"/>
-      <c r="F23" s="288" t="s">
+      <c r="F23" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="283"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="47">
         <f>ROUNDDOWN(H21*H22*1.5,0)</f>
         <v>5976</v>
@@ -11619,46 +11620,46 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="280" t="s">
+      <c r="A24" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="281"/>
-      <c r="C24" s="207">
+      <c r="B24" s="280"/>
+      <c r="C24" s="206">
         <f>ROUND(C23/1000,2)</f>
         <v>3.98</v>
       </c>
-      <c r="D24" s="208" t="s">
+      <c r="D24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="60"/>
-      <c r="F24" s="289" t="s">
+      <c r="F24" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="289"/>
-      <c r="H24" s="207">
+      <c r="G24" s="288"/>
+      <c r="H24" s="206">
         <f>ROUND(H23/1000,2)</f>
         <v>5.98</v>
       </c>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="207">
+      <c r="A25" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="280"/>
+      <c r="C25" s="206">
         <f>ROUND(C23/1000/0.87,2)</f>
         <v>4.58</v>
       </c>
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
       <c r="H25" s="48"/>
       <c r="I25" s="46"/>
       <c r="J25" s="28"/>
@@ -11668,7 +11669,7 @@
       <c r="B26" s="119"/>
       <c r="C26" s="124"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="224"/>
+      <c r="E26" s="223"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="122"/>
@@ -11676,13 +11677,13 @@
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="299" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="301"/>
+      <c r="B27" s="300"/>
       <c r="C27" s="124"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="224"/>
+      <c r="E27" s="223"/>
       <c r="F27" s="120"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
@@ -11690,22 +11691,22 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A28" s="291"/>
-      <c r="B28" s="292"/>
+      <c r="A28" s="290"/>
+      <c r="B28" s="291"/>
       <c r="C28" s="51"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="294"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="293"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A29" s="295" t="s">
+      <c r="A29" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="296"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="53"/>
       <c r="D29" s="95"/>
       <c r="E29" s="60"/>
@@ -11718,34 +11719,34 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickTop="1">
-      <c r="A30" s="297"/>
-      <c r="B30" s="298"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="297"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="298"/>
       <c r="H30" s="70"/>
       <c r="I30" s="71"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="282" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="283"/>
-      <c r="C31" s="230">
+      <c r="A31" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="282"/>
+      <c r="C31" s="229">
         <v>20</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="287" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="283"/>
-      <c r="H31" s="230">
+      <c r="F31" s="286" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="282"/>
+      <c r="H31" s="229">
         <v>20</v>
       </c>
       <c r="I31" s="55" t="s">
@@ -11754,61 +11755,61 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="282" t="s">
+      <c r="A32" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="283"/>
-      <c r="C32" s="230">
+      <c r="B32" s="282"/>
+      <c r="C32" s="229">
         <v>1</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="109"/>
-      <c r="F32" s="287" t="s">
+      <c r="F32" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="283"/>
-      <c r="H32" s="230">
+      <c r="G32" s="282"/>
+      <c r="H32" s="229">
         <v>1</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="282" t="s">
+      <c r="A33" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="283"/>
-      <c r="C33" s="230">
+      <c r="B33" s="282"/>
+      <c r="C33" s="229">
         <v>981</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="287" t="s">
+      <c r="F33" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="283"/>
-      <c r="H33" s="230">
+      <c r="G33" s="282"/>
+      <c r="H33" s="229">
         <v>981</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="282" t="s">
+      <c r="A34" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="283"/>
-      <c r="C34" s="226">
+      <c r="B34" s="282"/>
+      <c r="C34" s="225">
         <f>ROUND(1.732*C31*C23/C32/C33/C11,4)</f>
         <v>0.35170000000000001</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="284"/>
-      <c r="H34" s="226">
+      <c r="G34" s="283"/>
+      <c r="H34" s="225">
         <f>ROUND(2*H31*H23/H32/H33/C12,4)</f>
         <v>1.0593999999999999</v>
       </c>
@@ -11816,21 +11817,21 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="282" t="s">
+      <c r="A35" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="283"/>
-      <c r="C35" s="226">
+      <c r="B35" s="282"/>
+      <c r="C35" s="225">
         <f>ROUND(1/(1+C34),4)</f>
         <v>0.73980000000000001</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="284" t="s">
+      <c r="F35" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="284"/>
-      <c r="H35" s="226">
+      <c r="G35" s="283"/>
+      <c r="H35" s="225">
         <f>ROUND(1/(1+H34),4)</f>
         <v>0.48559999999999998</v>
       </c>
@@ -11838,10 +11839,10 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="283"/>
+      <c r="B36" s="282"/>
       <c r="C36" s="47">
         <f>ROUNDUP(C23*C35,0)</f>
         <v>2948</v>
@@ -11850,10 +11851,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="284"/>
+      <c r="G36" s="283"/>
       <c r="H36" s="47">
         <f>ROUNDUP(H23*H35,2)</f>
         <v>2901.9500000000003</v>
@@ -11864,46 +11865,46 @@
       <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="207">
+      <c r="B37" s="280"/>
+      <c r="C37" s="206">
         <f>ROUND(C36/1000,2)</f>
         <v>2.95</v>
       </c>
-      <c r="D37" s="208" t="s">
+      <c r="D37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="285" t="s">
+      <c r="F37" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="286"/>
-      <c r="H37" s="207">
+      <c r="G37" s="285"/>
+      <c r="H37" s="206">
         <f>ROUND(H36/1000,2)</f>
         <v>2.9</v>
       </c>
-      <c r="I37" s="208" t="s">
+      <c r="I37" s="207" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="207">
+      <c r="A38" s="279" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="280"/>
+      <c r="C38" s="206">
         <f>ROUND(C36/1000/0.87,2)</f>
         <v>3.39</v>
       </c>
-      <c r="D38" s="208" t="s">
+      <c r="D38" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="224"/>
-      <c r="F38" s="274"/>
-      <c r="G38" s="274"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="273"/>
+      <c r="G38" s="273"/>
       <c r="H38" s="96"/>
       <c r="I38" s="97"/>
       <c r="J38" s="30"/>
@@ -11914,33 +11915,33 @@
       <c r="C39" s="116"/>
       <c r="D39" s="42"/>
       <c r="E39" s="117"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="273"/>
       <c r="H39" s="96"/>
       <c r="I39" s="97"/>
       <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="275"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="274"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="278"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="277"/>
       <c r="H40" s="60"/>
-      <c r="I40" s="227"/>
+      <c r="I40" s="226"/>
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="274"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="229"/>
+      <c r="D41" s="228"/>
       <c r="E41" s="64"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="228"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="227"/>
       <c r="I41" s="14"/>
       <c r="J41" s="90"/>
     </row>
@@ -11962,7 +11963,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="77"/>
@@ -11979,8 +11980,8 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="231" t="s">
-        <v>99</v>
+      <c r="A44" s="230" t="s">
+        <v>98</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="77"/>
@@ -11993,8 +11994,8 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="18">
-      <c r="A45" s="231" t="s">
-        <v>100</v>
+      <c r="A45" s="230" t="s">
+        <v>99</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="77"/>
@@ -12031,12 +12032,12 @@
       <c r="B47" s="8"/>
       <c r="C47" s="77"/>
       <c r="D47" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
       <c r="G47" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="84"/>
       <c r="I47" s="9"/>
@@ -12044,7 +12045,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="77"/>
@@ -12100,7 +12101,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="220"/>
+      <c r="H51" s="219"/>
       <c r="I51" s="9"/>
       <c r="J51" s="31"/>
     </row>
@@ -12144,7 +12145,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
       <c r="G54" s="85"/>
-      <c r="H54" s="220"/>
+      <c r="H54" s="219"/>
       <c r="I54" s="9"/>
       <c r="J54" s="31"/>
     </row>
@@ -12210,7 +12211,7 @@
       <c r="F71" s="94"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="220"/>
+      <c r="F72" s="219"/>
     </row>
     <row r="73" spans="6:6" ht="15">
       <c r="F73" s="94"/>
@@ -12219,7 +12220,7 @@
       <c r="F74" s="94"/>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="220"/>
+      <c r="F75" s="219"/>
     </row>
     <row r="76" spans="6:6" ht="15">
       <c r="F76" s="94"/>
@@ -12240,7 +12241,7 @@
       <c r="F81" s="75"/>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="220"/>
+      <c r="F82" s="219"/>
     </row>
     <row r="83" spans="6:6" ht="15">
       <c r="F83" s="75"/>
@@ -12270,11 +12271,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="F22:G22"/>
@@ -12282,6 +12278,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A20:B20"/>
@@ -12312,11 +12313,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A1:B1"/>
@@ -12325,9 +12321,14 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
